--- a/myExcelFile.xlsx
+++ b/myExcelFile.xlsx
@@ -20,12 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">fsadf</t>
   </si>
   <si>
     <t xml:space="preserve"> dafasdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adsfasdfsdfasd</t>
   </si>
   <si>
     <t xml:space="preserve">a</t>
@@ -107,8 +110,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -132,29 +139,32 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I9" s="0" t="s">
-        <v>2</v>
+      <c r="I9" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="0" t="s">
-        <v>3</v>
+      <c r="D20" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
